--- a/Orders_Data.xlsx
+++ b/Orders_Data.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
